--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedevelopmentuae.sharepoint.com/sites/StrategyAnalytics/Shared Documents/03 Users/Norton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Norton Araujo\.gemini\antigravity\playground\fractal-omega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{A34007EC-B464-429B-A41A-3388CCFAC476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D308AAAA-6858-44CC-B3D0-E945A5EA2501}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D41CF0E-7BE2-451B-9A60-1DD663A03C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA9229F7-C805-43B7-9E99-AD5BEE88CCE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CA9229F7-C805-43B7-9E99-AD5BEE88CCE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Rejected Bookings" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId3"/>
-    <pivotCache cacheId="23" r:id="rId4"/>
+    <pivotCache cacheId="26" r:id="rId3"/>
+    <pivotCache cacheId="27" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -14724,7 +14724,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB20EC8D-09E3-482E-89B6-D1707285C2F9}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Booking Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB20EC8D-09E3-482E-89B6-D1707285C2F9}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Booking Status">
   <location ref="B15:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
     <pivotField showAll="0"/>
@@ -15001,7 +15001,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FC6CE48-8C55-4CA7-B40C-5064F4A29E3E}" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Summary">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FC6CE48-8C55-4CA7-B40C-5064F4A29E3E}" name="PivotTable3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Summary">
   <location ref="E3:F70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
@@ -16158,8 +16158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD5F9FF-1D56-477D-ABC7-7B53BE9234C2}">
   <dimension ref="B1:AF136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29840,12 +29840,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c7f59a0b-1b42-46b6-8657-dd6335d9912e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9664fe52-1f57-4564-8c31-42882f7d6b14" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30050,20 +30052,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c7f59a0b-1b42-46b6-8657-dd6335d9912e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9664fe52-1f57-4564-8c31-42882f7d6b14" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCE70C-AECF-4407-BA9A-F693A6D52121}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A3DEEE9-5E21-493C-9A97-BFFB2316A78D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c7f59a0b-1b42-46b6-8657-dd6335d9912e"/>
+    <ds:schemaRef ds:uri="9664fe52-1f57-4564-8c31-42882f7d6b14"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30088,12 +30091,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A3DEEE9-5E21-493C-9A97-BFFB2316A78D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCE70C-AECF-4407-BA9A-F693A6D52121}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c7f59a0b-1b42-46b6-8657-dd6335d9912e"/>
-    <ds:schemaRef ds:uri="9664fe52-1f57-4564-8c31-42882f7d6b14"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -15816,4 +15816,237 @@
     <ignoredError numberStoredAsText="1" sqref="B2:F70"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100745A699CB07A064196BBEBF5EFDF8D2B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa8c2141ed10354e8e6f10fb0ee33d29">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7f59a0b-1b42-46b6-8657-dd6335d9912e" xmlns:ns3="9664fe52-1f57-4564-8c31-42882f7d6b14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3786aa672823bf3698a4eda5e7fa9ce7" ns2:_="" ns3:_="">
+    <xsd:import namespace="c7f59a0b-1b42-46b6-8657-dd6335d9912e"/>
+    <xsd:import namespace="9664fe52-1f57-4564-8c31-42882f7d6b14"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c7f59a0b-1b42-46b6-8657-dd6335d9912e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="2a6a5c31-0e00-4f4c-8e7b-7a1927c7b147" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="19" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9664fe52-1f57-4564-8c31-42882f7d6b14" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{50b7ea71-8f9d-4571-883a-a59026d93b34}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9664fe52-1f57-4564-8c31-42882f7d6b14">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c7f59a0b-1b42-46b6-8657-dd6335d9912e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9664fe52-1f57-4564-8c31-42882f7d6b14" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A6B7928-B9FA-4296-BAC6-4269AE558C82}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB07D1E-F43A-4951-9AF5-41A7E23DFEC2}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EDE865-98AA-49D8-ABF2-7DB7BB72BA33}"/>
 </file>